--- a/src/main/webapp/files/예약 프로젝트 예약 신청서_기본.xlsx
+++ b/src/main/webapp/files/예약 프로젝트 예약 신청서_기본.xlsx
@@ -3,14 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr codeName="현재_통합_문서"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwp06\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD799815-8D75-4D43-A4D2-AE21ACD2B10A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{8F9F30F2-4BFE-47E2-9102-135DC63CF641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32175" yWindow="3165" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33285" yWindow="0" windowWidth="23415" windowHeight="15195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="예약 정보-메인" sheetId="1" r:id="rId1"/>
@@ -20,6 +15,7 @@
     <definedName name="경기도">코드리스트!$B$3:$B$33</definedName>
   </definedNames>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7mgoRAN0BO6vNHW+glVBKWAbFAuJmA=="/>
@@ -29,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="102">
   <si>
     <t>성명</t>
   </si>
@@ -275,14 +271,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>김어쩌구</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>권저쩌구</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>미취학 아동(0~5세)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -292,13 +280,7 @@
   </si>
   <si>
     <t>청소년(13~18세)</t>
-  </si>
-  <si>
-    <t>청소년(13~18세)</t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>성인(19~)</t>
   </si>
   <si>
     <t>성인(19~)</t>
@@ -311,9 +293,6 @@
   <si>
     <t>시/군(경상북도만)</t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>경산시</t>
   </si>
   <si>
     <t>경산시</t>
@@ -1058,7 +1037,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.75" defaultRowHeight="15" customHeight="1"/>
@@ -1093,7 +1072,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G1" s="17" t="s">
         <v>26</v>
@@ -1127,18 +1106,10 @@
       <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>7</v>
-      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="20"/>
       <c r="F2" s="19"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -1164,21 +1135,11 @@
       <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>82</v>
-      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="19"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
@@ -2620,7 +2581,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>29</v>
@@ -2648,10 +2609,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>30</v>
@@ -2676,10 +2637,10 @@
         <v>15</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="8" t="s">
@@ -2702,10 +2663,10 @@
         <v>16</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="9"/>
@@ -2726,10 +2687,10 @@
         <v>10</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="2"/>
@@ -2750,10 +2711,10 @@
         <v>17</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="2"/>
@@ -2774,7 +2735,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="3"/>
@@ -2796,7 +2757,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="3"/>
@@ -2818,7 +2779,7 @@
         <v>18</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="3"/>
@@ -2840,7 +2801,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
@@ -2862,7 +2823,7 @@
         <v>19</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="3"/>
@@ -2884,7 +2845,7 @@
         <v>20</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="3"/>
@@ -2906,7 +2867,7 @@
         <v>21</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="2"/>
@@ -2928,7 +2889,7 @@
         <v>22</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="2"/>
@@ -2950,7 +2911,7 @@
         <v>23</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="2"/>
@@ -2972,7 +2933,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="2"/>
@@ -2994,7 +2955,7 @@
         <v>24</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="2"/>
@@ -3016,7 +2977,7 @@
         <v>25</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="2"/>
@@ -3038,7 +2999,7 @@
         <v>46</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="2"/>
@@ -3058,7 +3019,7 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1">
       <c r="A21" s="15"/>
       <c r="B21" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="2"/>
@@ -3078,7 +3039,7 @@
     <row r="22" spans="1:14" ht="15.75" customHeight="1">
       <c r="A22" s="7"/>
       <c r="B22" s="5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="2"/>
@@ -3098,7 +3059,7 @@
     <row r="23" spans="1:14" ht="15.75" customHeight="1">
       <c r="A23" s="7"/>
       <c r="B23" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="2"/>
@@ -3118,7 +3079,7 @@
     <row r="24" spans="1:14" ht="15.75" customHeight="1">
       <c r="A24" s="7"/>
       <c r="B24" s="5" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="2"/>
@@ -3138,7 +3099,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1">
       <c r="A25" s="7"/>
       <c r="B25" s="5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="2"/>
@@ -18769,6 +18730,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x01010009DE8146038EB24ABCA3B76375F94A12" ma:contentTypeVersion="2" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="e26e2e38deb76b9f326fcf638f6b7d38">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b3fd22c4-be72-4918-ba22-4c3c35cc087e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2c9b55e2e3272d3302342c4bce456810" ns2:_="">
     <xsd:import namespace="b3fd22c4-be72-4918-ba22-4c3c35cc087e"/>
@@ -18900,12 +18867,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -18916,6 +18877,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A6C7707-6060-46E2-9936-D843C68B7ED3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{336C1E27-E367-422A-9E3E-3C4D95032A5E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18933,15 +18903,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A6C7707-6060-46E2-9936-D843C68B7ED3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FA7B2E5-39B3-4417-8FA4-39C89EC15BA3}">
   <ds:schemaRefs>

--- a/src/main/webapp/files/예약 프로젝트 예약 신청서_기본.xlsx
+++ b/src/main/webapp/files/예약 프로젝트 예약 신청서_기본.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr codeName="현재_통합_문서"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{8F9F30F2-4BFE-47E2-9102-135DC63CF641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MinsuPC\Desktop\workspace\fourthProj\eGov_fourth\src\main\webapp\files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE5C7FB-1023-491B-B065-1E750F3F1252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33285" yWindow="0" windowWidth="23415" windowHeight="15195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="예약 정보-메인" sheetId="1" r:id="rId1"/>
@@ -15,7 +20,6 @@
     <definedName name="경기도">코드리스트!$B$3:$B$33</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7mgoRAN0BO6vNHW+glVBKWAbFAuJmA=="/>
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="88">
   <si>
     <t>성명</t>
   </si>
@@ -129,62 +133,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>단체예약 가능한 체험존</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>이용 연령</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>회차별 정원</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>교육시간</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>어린이 안전동화마을</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>5~9세</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>36명</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>60분</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>복합존(1~4존)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>10세 이상</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>각 15명</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>각 60분</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본 심폐소생술(CPR&amp;AED)과정</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>20명</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>해외</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -194,11 +142,11 @@
   </si>
   <si>
     <t>미국</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>캐나다</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>중국</t>
@@ -211,7 +159,7 @@
   </si>
   <si>
     <t>베트남</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>캄보디아</t>
@@ -257,18 +205,18 @@
   </si>
   <si>
     <t>우즈베키스탄</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>호주</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>인도</t>
   </si>
   <si>
     <t>기타</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>미취학 아동(0~5세)</t>
@@ -398,7 +346,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -442,14 +390,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Malgun Gothic"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
@@ -465,7 +405,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -502,14 +442,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="16">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -722,6 +656,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -757,19 +720,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -799,13 +750,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -815,6 +766,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1037,7 +1000,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.75" defaultRowHeight="15" customHeight="1"/>
@@ -1056,40 +1019,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="16.5" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="17" t="s">
-        <v>101</v>
+      <c r="F1" s="13" t="s">
+        <v>87</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="17" t="s">
-        <v>47</v>
+      <c r="I1" s="13" t="s">
+        <v>33</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="26"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="22"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
@@ -1103,22 +1066,22 @@
       <c r="Y1" s="1"/>
     </row>
     <row r="2" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A2" s="18">
+      <c r="A2" s="14">
         <v>1</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -1132,30 +1095,22 @@
       <c r="Y2" s="1"/>
     </row>
     <row r="3" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A3" s="18">
+      <c r="A3" s="14">
         <v>2</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="N3" s="1"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -1169,30 +1124,22 @@
       <c r="Y3" s="1"/>
     </row>
     <row r="4" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A4" s="18">
+      <c r="A4" s="14">
         <v>3</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="L4" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="N4" s="1"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
@@ -1206,30 +1153,22 @@
       <c r="Y4" s="1"/>
     </row>
     <row r="5" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A5" s="18">
+      <c r="A5" s="14">
         <v>4</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="L5" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="M5" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="N5" s="1"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -1243,30 +1182,22 @@
       <c r="Y5" s="1"/>
     </row>
     <row r="6" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A6" s="18">
+      <c r="A6" s="14">
         <v>5</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="L6" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="M6" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="N6" s="1"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -1280,22 +1211,22 @@
       <c r="Y6" s="1"/>
     </row>
     <row r="7" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A7" s="18">
+      <c r="A7" s="14">
         <v>6</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -1309,22 +1240,22 @@
       <c r="Y7" s="1"/>
     </row>
     <row r="8" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A8" s="18">
+      <c r="A8" s="14">
         <v>7</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -1338,22 +1269,22 @@
       <c r="Y8" s="1"/>
     </row>
     <row r="9" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A9" s="18">
+      <c r="A9" s="14">
         <v>8</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -1367,17 +1298,17 @@
       <c r="Y9" s="1"/>
     </row>
     <row r="10" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A10" s="18">
+      <c r="A10" s="14">
         <v>9</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -1396,17 +1327,17 @@
       <c r="Y10" s="1"/>
     </row>
     <row r="11" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A11" s="18">
+      <c r="A11" s="14">
         <v>10</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -1424,17 +1355,17 @@
       <c r="Y11" s="1"/>
     </row>
     <row r="12" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A12" s="18">
+      <c r="A12" s="14">
         <v>11</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -1453,17 +1384,17 @@
       <c r="Y12" s="1"/>
     </row>
     <row r="13" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A13" s="18">
+      <c r="A13" s="14">
         <v>12</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -1482,17 +1413,17 @@
       <c r="Y13" s="1"/>
     </row>
     <row r="14" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A14" s="18">
+      <c r="A14" s="14">
         <v>13</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -1511,17 +1442,17 @@
       <c r="Y14" s="1"/>
     </row>
     <row r="15" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A15" s="18">
+      <c r="A15" s="14">
         <v>14</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -1540,17 +1471,17 @@
       <c r="Y15" s="1"/>
     </row>
     <row r="16" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A16" s="18">
+      <c r="A16" s="14">
         <v>15</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -1569,17 +1500,17 @@
       <c r="Y16" s="1"/>
     </row>
     <row r="17" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A17" s="18">
+      <c r="A17" s="14">
         <v>16</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -1598,17 +1529,17 @@
       <c r="Y17" s="1"/>
     </row>
     <row r="18" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A18" s="18">
+      <c r="A18" s="14">
         <v>17</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -1627,17 +1558,17 @@
       <c r="Y18" s="1"/>
     </row>
     <row r="19" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A19" s="18">
+      <c r="A19" s="14">
         <v>18</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -1656,17 +1587,17 @@
       <c r="Y19" s="1"/>
     </row>
     <row r="20" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A20" s="18">
+      <c r="A20" s="14">
         <v>19</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -1685,17 +1616,17 @@
       <c r="Y20" s="1"/>
     </row>
     <row r="21" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A21" s="18">
+      <c r="A21" s="14">
         <v>20</v>
       </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -1714,17 +1645,17 @@
       <c r="Y21" s="1"/>
     </row>
     <row r="22" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A22" s="18">
+      <c r="A22" s="14">
         <v>21</v>
       </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -1743,17 +1674,17 @@
       <c r="Y22" s="1"/>
     </row>
     <row r="23" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A23" s="18">
+      <c r="A23" s="14">
         <v>22</v>
       </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
@@ -1772,17 +1703,17 @@
       <c r="Y23" s="1"/>
     </row>
     <row r="24" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A24" s="18">
+      <c r="A24" s="14">
         <v>23</v>
       </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -1801,17 +1732,17 @@
       <c r="Y24" s="1"/>
     </row>
     <row r="25" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A25" s="18">
+      <c r="A25" s="14">
         <v>24</v>
       </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
@@ -1830,17 +1761,17 @@
       <c r="Y25" s="1"/>
     </row>
     <row r="26" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A26" s="18">
+      <c r="A26" s="14">
         <v>25</v>
       </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
@@ -1859,17 +1790,17 @@
       <c r="Y26" s="1"/>
     </row>
     <row r="27" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A27" s="18">
+      <c r="A27" s="14">
         <v>26</v>
       </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
@@ -1888,17 +1819,17 @@
       <c r="Y27" s="1"/>
     </row>
     <row r="28" spans="1:25" ht="16.5" customHeight="1">
-      <c r="A28" s="18">
+      <c r="A28" s="14">
         <v>27</v>
       </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -1917,17 +1848,17 @@
       <c r="Y28" s="1"/>
     </row>
     <row r="29" spans="1:25" ht="16.5" customHeight="1">
-      <c r="A29" s="18">
+      <c r="A29" s="14">
         <v>28</v>
       </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -1946,17 +1877,17 @@
       <c r="Y29" s="1"/>
     </row>
     <row r="30" spans="1:25" ht="16.5" customHeight="1">
-      <c r="A30" s="18">
+      <c r="A30" s="14">
         <v>29</v>
       </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -1975,17 +1906,17 @@
       <c r="Y30" s="1"/>
     </row>
     <row r="31" spans="1:25" ht="16.5" customHeight="1">
-      <c r="A31" s="18">
+      <c r="A31" s="14">
         <v>30</v>
       </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -2004,17 +1935,17 @@
       <c r="Y31" s="1"/>
     </row>
     <row r="32" spans="1:25" ht="16.5" customHeight="1">
-      <c r="A32" s="18">
+      <c r="A32" s="14">
         <v>31</v>
       </c>
-      <c r="B32" s="20"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -2033,17 +1964,17 @@
       <c r="Y32" s="1"/>
     </row>
     <row r="33" spans="1:25" ht="16.5" customHeight="1">
-      <c r="A33" s="18">
+      <c r="A33" s="14">
         <v>32</v>
       </c>
-      <c r="B33" s="20"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -2062,17 +1993,17 @@
       <c r="Y33" s="1"/>
     </row>
     <row r="34" spans="1:25" ht="16.5" customHeight="1">
-      <c r="A34" s="18">
+      <c r="A34" s="14">
         <v>33</v>
       </c>
-      <c r="B34" s="20"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -2091,17 +2022,17 @@
       <c r="Y34" s="1"/>
     </row>
     <row r="35" spans="1:25" ht="16.5" customHeight="1">
-      <c r="A35" s="18">
+      <c r="A35" s="14">
         <v>34</v>
       </c>
-      <c r="B35" s="20"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -2120,17 +2051,17 @@
       <c r="Y35" s="1"/>
     </row>
     <row r="36" spans="1:25" ht="16.5" customHeight="1">
-      <c r="A36" s="18">
+      <c r="A36" s="14">
         <v>35</v>
       </c>
-      <c r="B36" s="20"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -2149,17 +2080,17 @@
       <c r="Y36" s="1"/>
     </row>
     <row r="37" spans="1:25" ht="16.5" customHeight="1">
-      <c r="A37" s="18">
+      <c r="A37" s="14">
         <v>36</v>
       </c>
-      <c r="B37" s="20"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -2178,318 +2109,321 @@
       <c r="Y37" s="1"/>
     </row>
     <row r="38" spans="1:25" ht="15" customHeight="1">
-      <c r="A38" s="18">
+      <c r="A38" s="14">
         <v>37</v>
       </c>
-      <c r="B38" s="20"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
     </row>
     <row r="39" spans="1:25" ht="15" customHeight="1">
-      <c r="A39" s="18">
+      <c r="A39" s="14">
         <v>38</v>
       </c>
-      <c r="B39" s="20"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
     </row>
     <row r="40" spans="1:25" ht="15" customHeight="1">
-      <c r="A40" s="18">
+      <c r="A40" s="14">
         <v>39</v>
       </c>
-      <c r="B40" s="20"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="22"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
     </row>
     <row r="41" spans="1:25" ht="15" customHeight="1">
-      <c r="A41" s="18">
+      <c r="A41" s="14">
         <v>40</v>
       </c>
-      <c r="B41" s="20"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="22"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
     </row>
     <row r="42" spans="1:25" ht="15" customHeight="1">
-      <c r="A42" s="18">
+      <c r="A42" s="14">
         <v>41</v>
       </c>
-      <c r="B42" s="20"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="22"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
     </row>
     <row r="43" spans="1:25" ht="15" customHeight="1">
-      <c r="A43" s="18">
+      <c r="A43" s="14">
         <v>42</v>
       </c>
-      <c r="B43" s="20"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="22"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
     </row>
     <row r="44" spans="1:25" ht="15" customHeight="1">
-      <c r="A44" s="18">
+      <c r="A44" s="14">
         <v>43</v>
       </c>
-      <c r="B44" s="20"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="18"/>
     </row>
     <row r="45" spans="1:25" ht="15" customHeight="1">
-      <c r="A45" s="18">
+      <c r="A45" s="14">
         <v>44</v>
       </c>
-      <c r="B45" s="20"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="22"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
     </row>
     <row r="46" spans="1:25" ht="15" customHeight="1">
-      <c r="A46" s="18">
+      <c r="A46" s="14">
         <v>45</v>
       </c>
-      <c r="B46" s="20"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="22"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="18"/>
     </row>
     <row r="47" spans="1:25" ht="15" customHeight="1">
-      <c r="A47" s="18">
+      <c r="A47" s="14">
         <v>46</v>
       </c>
-      <c r="B47" s="20"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="22"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="18"/>
     </row>
     <row r="48" spans="1:25" ht="15" customHeight="1">
-      <c r="A48" s="18">
+      <c r="A48" s="14">
         <v>47</v>
       </c>
-      <c r="B48" s="20"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="22"/>
-      <c r="I48" s="22"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="18"/>
     </row>
     <row r="49" spans="1:9" ht="15" customHeight="1">
-      <c r="A49" s="18">
+      <c r="A49" s="14">
         <v>48</v>
       </c>
-      <c r="B49" s="20"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="22"/>
-      <c r="I49" s="22"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
     </row>
     <row r="50" spans="1:9" ht="15" customHeight="1">
-      <c r="A50" s="18">
+      <c r="A50" s="14">
         <v>49</v>
       </c>
-      <c r="B50" s="20"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="22"/>
-      <c r="I50" s="22"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
     </row>
     <row r="51" spans="1:9" ht="15" customHeight="1">
-      <c r="A51" s="18">
+      <c r="A51" s="14">
         <v>50</v>
       </c>
-      <c r="B51" s="20"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="22"/>
-      <c r="I51" s="22"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="18"/>
     </row>
     <row r="52" spans="1:9" ht="15" customHeight="1">
-      <c r="A52" s="18">
+      <c r="A52" s="14">
         <v>51</v>
       </c>
-      <c r="B52" s="20"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="19"/>
-      <c r="H52" s="22"/>
-      <c r="I52" s="22"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="18"/>
     </row>
     <row r="53" spans="1:9" ht="15" customHeight="1">
-      <c r="A53" s="18">
+      <c r="A53" s="14">
         <v>52</v>
       </c>
-      <c r="B53" s="20"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="22"/>
-      <c r="I53" s="22"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="18"/>
     </row>
     <row r="54" spans="1:9" ht="15" customHeight="1">
-      <c r="A54" s="18">
+      <c r="A54" s="14">
         <v>53</v>
       </c>
-      <c r="B54" s="20"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="21"/>
-      <c r="G54" s="19"/>
-      <c r="H54" s="22"/>
-      <c r="I54" s="22"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="18"/>
+      <c r="I54" s="18"/>
     </row>
     <row r="55" spans="1:9" ht="15" customHeight="1">
-      <c r="A55" s="18">
+      <c r="A55" s="14">
         <v>54</v>
       </c>
-      <c r="B55" s="20"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="21"/>
-      <c r="G55" s="19"/>
-      <c r="H55" s="22"/>
-      <c r="I55" s="22"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="18"/>
     </row>
     <row r="56" spans="1:9" ht="15" customHeight="1">
-      <c r="A56" s="18">
+      <c r="A56" s="14">
         <v>55</v>
       </c>
-      <c r="B56" s="20"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="19"/>
-      <c r="H56" s="22"/>
-      <c r="I56" s="22"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="18"/>
     </row>
     <row r="57" spans="1:9" ht="15" customHeight="1">
-      <c r="A57" s="18">
+      <c r="A57" s="14">
         <v>56</v>
       </c>
-      <c r="B57" s="20"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="21"/>
-      <c r="G57" s="19"/>
-      <c r="H57" s="22"/>
-      <c r="I57" s="22"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="18"/>
+      <c r="I57" s="18"/>
     </row>
     <row r="58" spans="1:9" ht="15" customHeight="1">
-      <c r="A58" s="18">
+      <c r="A58" s="14">
         <v>57</v>
       </c>
-      <c r="B58" s="20"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="19"/>
-      <c r="H58" s="22"/>
-      <c r="I58" s="22"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="18"/>
     </row>
     <row r="59" spans="1:9" ht="15" customHeight="1">
-      <c r="A59" s="18">
+      <c r="A59" s="14">
         <v>58</v>
       </c>
-      <c r="B59" s="20"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="19"/>
-      <c r="H59" s="22"/>
-      <c r="I59" s="22"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="18"/>
     </row>
     <row r="60" spans="1:9" ht="15" customHeight="1">
-      <c r="A60" s="18">
+      <c r="A60" s="14">
         <v>59</v>
       </c>
-      <c r="B60" s="20"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="21"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="19"/>
-      <c r="H60" s="22"/>
-      <c r="I60" s="22"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="18"/>
+      <c r="I60" s="18"/>
     </row>
     <row r="61" spans="1:9" ht="15" customHeight="1">
-      <c r="A61" s="18">
+      <c r="A61" s="14">
         <v>60</v>
       </c>
-      <c r="B61" s="20"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="19"/>
-      <c r="H61" s="22"/>
-      <c r="I61" s="22"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="18"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="J2:N9"/>
+  </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F61" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -2559,13 +2493,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -2581,7 +2515,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>29</v>
@@ -2593,7 +2527,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -2609,10 +2543,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>30</v>
@@ -2620,8 +2554,8 @@
       <c r="E3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="27" t="s">
-        <v>48</v>
+      <c r="F3" s="23" t="s">
+        <v>34</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -2637,17 +2571,17 @@
         <v>15</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="27" t="s">
-        <v>49</v>
+      <c r="F4" s="23" t="s">
+        <v>35</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -2663,15 +2597,15 @@
         <v>16</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="9"/>
-      <c r="F5" s="27" t="s">
-        <v>50</v>
+      <c r="F5" s="23" t="s">
+        <v>36</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -2687,15 +2621,15 @@
         <v>10</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="27" t="s">
-        <v>51</v>
+      <c r="F6" s="23" t="s">
+        <v>37</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -2711,15 +2645,15 @@
         <v>17</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="27" t="s">
-        <v>52</v>
+      <c r="F7" s="23" t="s">
+        <v>38</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -2735,13 +2669,13 @@
         <v>11</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="3"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="27" t="s">
-        <v>53</v>
+      <c r="F8" s="23" t="s">
+        <v>39</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -2757,13 +2691,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="3"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="27" t="s">
-        <v>54</v>
+      <c r="F9" s="23" t="s">
+        <v>40</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -2779,13 +2713,13 @@
         <v>18</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="3"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="27" t="s">
-        <v>55</v>
+      <c r="F10" s="23" t="s">
+        <v>41</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -2801,13 +2735,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="27" t="s">
-        <v>56</v>
+      <c r="F11" s="23" t="s">
+        <v>42</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -2823,13 +2757,13 @@
         <v>19</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="3"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="27" t="s">
-        <v>57</v>
+      <c r="F12" s="23" t="s">
+        <v>43</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -2845,13 +2779,13 @@
         <v>20</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="3"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="27" t="s">
-        <v>58</v>
+      <c r="F13" s="23" t="s">
+        <v>44</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -2867,13 +2801,13 @@
         <v>21</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="27" t="s">
-        <v>59</v>
+      <c r="F14" s="23" t="s">
+        <v>45</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -2889,13 +2823,13 @@
         <v>22</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="27" t="s">
-        <v>60</v>
+      <c r="F15" s="23" t="s">
+        <v>46</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -2911,13 +2845,13 @@
         <v>23</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="27" t="s">
-        <v>61</v>
+      <c r="F16" s="23" t="s">
+        <v>47</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -2933,13 +2867,13 @@
         <v>9</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="27" t="s">
-        <v>62</v>
+      <c r="F17" s="23" t="s">
+        <v>48</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -2955,13 +2889,13 @@
         <v>24</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="27" t="s">
-        <v>63</v>
+      <c r="F18" s="23" t="s">
+        <v>49</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -2977,13 +2911,13 @@
         <v>25</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="27" t="s">
-        <v>64</v>
+      <c r="F19" s="23" t="s">
+        <v>50</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -2995,17 +2929,17 @@
       <c r="N19" s="1"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A20" s="16" t="s">
-        <v>46</v>
+      <c r="A20" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="27" t="s">
-        <v>65</v>
+      <c r="F20" s="23" t="s">
+        <v>51</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -3017,15 +2951,15 @@
       <c r="N20" s="1"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A21" s="15"/>
+      <c r="A21" s="11"/>
       <c r="B21" s="5" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="27" t="s">
-        <v>66</v>
+      <c r="F21" s="23" t="s">
+        <v>52</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -3039,13 +2973,13 @@
     <row r="22" spans="1:14" ht="15.75" customHeight="1">
       <c r="A22" s="7"/>
       <c r="B22" s="5" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="27" t="s">
-        <v>67</v>
+      <c r="F22" s="23" t="s">
+        <v>53</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -3059,13 +2993,13 @@
     <row r="23" spans="1:14" ht="15.75" customHeight="1">
       <c r="A23" s="7"/>
       <c r="B23" s="5" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="27" t="s">
-        <v>68</v>
+      <c r="F23" s="23" t="s">
+        <v>54</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -3079,13 +3013,13 @@
     <row r="24" spans="1:14" ht="15.75" customHeight="1">
       <c r="A24" s="7"/>
       <c r="B24" s="5" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="27" t="s">
-        <v>69</v>
+      <c r="F24" s="23" t="s">
+        <v>55</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -3099,13 +3033,13 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1">
       <c r="A25" s="7"/>
       <c r="B25" s="5" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="27" t="s">
-        <v>70</v>
+      <c r="F25" s="23" t="s">
+        <v>56</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -3122,8 +3056,8 @@
       <c r="C26" s="3"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="27" t="s">
-        <v>71</v>
+      <c r="F26" s="23" t="s">
+        <v>57</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -18736,6 +18670,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x01010009DE8146038EB24ABCA3B76375F94A12" ma:contentTypeVersion="2" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="e26e2e38deb76b9f326fcf638f6b7d38">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b3fd22c4-be72-4918-ba22-4c3c35cc087e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2c9b55e2e3272d3302342c4bce456810" ns2:_="">
     <xsd:import namespace="b3fd22c4-be72-4918-ba22-4c3c35cc087e"/>
@@ -18867,15 +18810,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A6C7707-6060-46E2-9936-D843C68B7ED3}">
   <ds:schemaRefs>
@@ -18886,6 +18820,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FA7B2E5-39B3-4417-8FA4-39C89EC15BA3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{336C1E27-E367-422A-9E3E-3C4D95032A5E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18901,12 +18843,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FA7B2E5-39B3-4417-8FA4-39C89EC15BA3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>